--- a/src/parseAuthExcel/授权规则收集表汇总1.0-有效数据-20190520.xlsx
+++ b/src/parseAuthExcel/授权规则收集表汇总1.0-有效数据-20190520.xlsx
@@ -4828,11 +4828,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -4946,6 +4946,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4961,52 +4968,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5027,8 +4989,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5060,7 +5038,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5079,6 +5064,21 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5115,25 +5115,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5145,37 +5217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5187,13 +5229,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5211,7 +5259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5223,79 +5277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5335,22 +5335,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5379,41 +5374,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5432,6 +5397,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5440,10 +5440,10 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5455,130 +5455,130 @@
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6357,10 +6357,10 @@
   <sheetPr/>
   <dimension ref="A1:U330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G341" sqref="G341"/>
+      <selection pane="bottomLeft" activeCell="E291" sqref="E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17756,7 +17756,7 @@
         <v>27</v>
       </c>
       <c r="H202" s="28" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I202" s="28" t="s">
         <v>593</v>
@@ -17813,7 +17813,7 @@
         <v>27</v>
       </c>
       <c r="H203" s="28" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I203" s="28" t="s">
         <v>595</v>
@@ -17927,7 +17927,7 @@
         <v>27</v>
       </c>
       <c r="H205" s="28" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I205" s="28" t="s">
         <v>602</v>
@@ -21254,7 +21254,7 @@
         <v>27</v>
       </c>
       <c r="H268" s="28" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I268" s="28" t="s">
         <v>767</v>
@@ -21307,7 +21307,7 @@
         <v>27</v>
       </c>
       <c r="H269" s="28" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I269" s="28" t="s">
         <v>767</v>
@@ -23985,7 +23985,7 @@
         <v>27</v>
       </c>
       <c r="H319" s="28" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I319" s="28" t="s">
         <v>982</v>
